--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nlk/Desktop/Artificial Intelligence/3rd Year/Bayesian Networks/week3/Adpated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nlk/Desktop/Artificial Intelligence/3rd Year/Bayesian Networks/week3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D1A41-213E-2840-88A3-CC392905E0A9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCBFA25-027A-254D-9534-E460F4442C08}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" xr2:uid="{DB84CAA0-3DCF-CB46-8FAD-DB5DD16BECCF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DB84CAA0-3DCF-CB46-8FAD-DB5DD16BECCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t xml:space="preserve"> Arrow Nr.</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -109,21 +112,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -300,7 +422,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:f>Sheet1!$A$50:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -330,7 +452,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$42:$B$48</c:f>
+              <c:f>Sheet1!$B$50:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -440,7 +562,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$42:$A$48</c:f>
+              <c:f>Sheet1!$A$50:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -470,7 +592,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$42:$C$48</c:f>
+              <c:f>Sheet1!$C$50:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1394,7 +1516,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$28</c:f>
+              <c:f>Sheet1!$A$25:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1421,7 +1543,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$B$28</c:f>
+              <c:f>Sheet1!$B$25:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1528,7 +1650,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$23:$A$28</c:f>
+              <c:f>Sheet1!$A$25:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1555,7 +1677,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$23:$C$28</c:f>
+              <c:f>Sheet1!$C$25:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3425,13 +3547,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3499,13 +3621,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3833,10 +3955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D3DAD7-F3E9-6843-AA1F-1023F35B349C}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -3846,87 +3968,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="13">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="13">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="13">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="15">
         <f>SUM(B2:B5)</f>
         <v>14</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="16">
         <f>SUM(C2:C5)</f>
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="17">
         <v>3</v>
       </c>
       <c r="C10" s="2"/>
@@ -3952,287 +4074,386 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="6">
         <v>0</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="6">
         <v>1</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="7">
         <f>11/3</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="9">
         <v>0.57735029999999998</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="6">
         <v>2</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="7">
         <f>23/5</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="9">
         <v>0.89442719999999998</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="11">
         <f>28/5</f>
         <v>5.6</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="12">
         <v>0.54772259999999995</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>5</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B25" s="13">
         <v>4</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C25" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>6</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B26" s="13">
         <v>11</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C26" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>7</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B27" s="13">
         <v>20</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C27" s="8">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>8</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B28" s="13">
         <v>10</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C28" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>9</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B29" s="13">
         <v>9</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C29" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>10</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B30" s="13">
         <v>20</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C30" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="3">
-        <f>SUM(B23:B28)</f>
+      <c r="B31" s="15">
+        <f>SUM(B25:B30)</f>
         <v>74</v>
       </c>
-      <c r="C29" s="3">
-        <f>SUM(C23:C28)</f>
+      <c r="C31" s="16">
+        <f>SUM(C25:C30)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B34" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B35" s="21">
         <v>5</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>0</v>
+      </c>
+      <c r="B39" s="7">
+        <v>5</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>1</v>
+      </c>
+      <c r="B40" s="7">
+        <f>AVERAGE(5,5,6,6,7,7)</f>
+        <v>6</v>
+      </c>
+      <c r="C40" s="9"/>
+    </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="A41" s="6">
+        <v>2</v>
+      </c>
+      <c r="B41" s="7">
+        <f>AVERAGE(5,6,6,6,7,7,7,7,7,7,7,7,7,7,8,8,9,9,10)</f>
+        <v>7.2105263157894735</v>
+      </c>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="B42" s="7">
+        <f>AVERAGE(6,6,6,7,7,7,7,7,7,9,9,9,9,9,9,9,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10)</f>
+        <v>8.806451612903226</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
         <v>4</v>
       </c>
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="B43" s="7">
+        <f>AVERAGE(6,6,6,8,8,8,8,8,10,10,10,10)</f>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
         <v>5</v>
       </c>
-      <c r="B43" s="2">
-        <v>8</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>6</v>
-      </c>
-      <c r="B44" s="2">
-        <v>14</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
+      <c r="B44" s="11">
+        <f>AVERAGE(7,7,8,8,8)</f>
+        <v>7.6</v>
+      </c>
+      <c r="C44" s="12"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>7</v>
-      </c>
-      <c r="B45" s="2">
-        <v>8</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
+      <c r="A45" s="13"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>8</v>
-      </c>
-      <c r="B46" s="2">
-        <v>12</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
+      <c r="A46" s="13"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>9</v>
-      </c>
-      <c r="B47" s="2">
-        <v>2</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>10</v>
-      </c>
-      <c r="B48" s="2">
-        <v>20</v>
-      </c>
-      <c r="C48" s="2">
-        <v>120</v>
-      </c>
+      <c r="A47" s="13"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="22"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>4</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>5</v>
+      </c>
+      <c r="B51" s="13">
+        <v>8</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>6</v>
+      </c>
+      <c r="B52" s="13">
+        <v>14</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>7</v>
+      </c>
+      <c r="B53" s="13">
+        <v>8</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>8</v>
+      </c>
+      <c r="B54" s="13">
+        <v>12</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>9</v>
+      </c>
+      <c r="B55" s="13">
         <v>2</v>
       </c>
-      <c r="B49" s="3">
-        <f>SUM(B42:B48)</f>
+      <c r="C55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>10</v>
+      </c>
+      <c r="B56" s="13">
+        <v>20</v>
+      </c>
+      <c r="C56" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="15">
+        <f>SUM(B50:B56)</f>
         <v>65</v>
       </c>
-      <c r="C49" s="3">
-        <f>SUM(C42:C48)</f>
+      <c r="C57" s="16">
+        <f>SUM(C50:C56)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B60" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B61" s="21">
         <v>4</v>
       </c>
     </row>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10524"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nlk/Desktop/Artificial Intelligence/3rd Year/Bayesian Networks/week3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCBFA25-027A-254D-9534-E460F4442C08}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F31E8B-383F-CA4F-81C1-A154D73A2929}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DB84CAA0-3DCF-CB46-8FAD-DB5DD16BECCF}"/>
   </bookViews>
@@ -612,10 +612,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3957,8 +3957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D3DAD7-F3E9-6843-AA1F-1023F35B349C}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -4414,7 +4414,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="8">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -4425,7 +4425,7 @@
         <v>20</v>
       </c>
       <c r="C56" s="8">
-        <v>120</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
